--- a/data/models.xlsx
+++ b/data/models.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjw/Documents/THU/research/Android Responsiveness/homepage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjw/Documents/THU/research/Android Responsiveness/homepage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B3E5C2-1938-5049-8B39-C1461D1175AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD00DC3C-2049-3341-8B66-6B3964888ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17860" xr2:uid="{54060FD9-F2A0-DB4A-9B07-B54D70B08079}"/>
+    <workbookView xWindow="7180" yWindow="780" windowWidth="23440" windowHeight="17860" xr2:uid="{54060FD9-F2A0-DB4A-9B07-B54D70B08079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="46">
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>3 GB</t>
   </si>
   <si>
@@ -81,33 +69,6 @@
     <t>32 GB</t>
   </si>
   <si>
-    <t>Pre_Prevalence</t>
-  </si>
-  <si>
-    <t>Pre_Frequency</t>
-  </si>
-  <si>
-    <t>Pre_Rate</t>
-  </si>
-  <si>
-    <t>Lat_Prevalence</t>
-  </si>
-  <si>
-    <t>Lat_Frequency</t>
-  </si>
-  <si>
-    <t>Pre_Energy</t>
-  </si>
-  <si>
-    <t>Lat_Energy</t>
-  </si>
-  <si>
-    <t>release time</t>
-  </si>
-  <si>
-    <t>Android Version</t>
-  </si>
-  <si>
     <t>2.0 GHz eight cores</t>
   </si>
   <si>
@@ -129,12 +90,6 @@
     <t>3.2GHz eight cores</t>
   </si>
   <si>
-    <t>CPU Frequency</t>
-  </si>
-  <si>
-    <t>CPU Mode</t>
-  </si>
-  <si>
     <t>MediaTek Helio G80</t>
   </si>
   <si>
@@ -171,7 +126,52 @@
     <t>Snapdragon 870</t>
   </si>
   <si>
-    <t>Lat_Rate</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>release_time</t>
+  </si>
+  <si>
+    <t>CPU_model</t>
+  </si>
+  <si>
+    <t>CPU_frequency</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>prevalence_bopt</t>
+  </si>
+  <si>
+    <t>frequency_bopt</t>
+  </si>
+  <si>
+    <t>rate_bopt</t>
+  </si>
+  <si>
+    <t>energy_bopt</t>
+  </si>
+  <si>
+    <t>prevalence_aopt</t>
+  </si>
+  <si>
+    <t>frequency_aopt</t>
+  </si>
+  <si>
+    <t>rate_aopt</t>
+  </si>
+  <si>
+    <t>energy_aopt</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000%"/>
     <numFmt numFmtId="166" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -244,7 +244,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +562,7 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,8 +574,8 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18" style="11" customWidth="1"/>
+    <col min="9" max="9" width="35.5" customWidth="1"/>
+    <col min="10" max="10" width="51.33203125" style="11" customWidth="1"/>
     <col min="11" max="12" width="24.1640625" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" customWidth="1"/>
     <col min="14" max="14" width="22.33203125" customWidth="1"/>
@@ -587,52 +587,52 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="Q1" s="3"/>
     </row>
@@ -644,16 +644,16 @@
         <v>2020.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" s="8">
         <v>10</v>
@@ -694,16 +694,16 @@
         <v>2020.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" s="8">
         <v>11</v>
@@ -744,16 +744,16 @@
         <v>2020.6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8">
         <v>11</v>
@@ -794,16 +794,16 @@
         <v>2020.6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="8">
         <v>12</v>
@@ -844,16 +844,16 @@
         <v>2019.8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -894,16 +894,16 @@
         <v>2019.8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" s="8">
         <v>11</v>
@@ -944,16 +944,16 @@
         <v>2019.8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="8">
         <v>12</v>
@@ -994,16 +994,16 @@
         <v>2019.8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -1044,16 +1044,16 @@
         <v>2020.4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="8">
         <v>11</v>
@@ -1094,16 +1094,16 @@
         <v>2020.4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="8">
         <v>12</v>
@@ -1145,16 +1145,16 @@
         <v>2020.6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" s="8">
         <v>11</v>
@@ -1195,16 +1195,16 @@
         <v>2020.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G13" s="8">
         <v>11</v>
@@ -1245,16 +1245,16 @@
         <v>2020.6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>
@@ -1295,16 +1295,16 @@
         <v>2020.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G15" s="8">
         <v>12</v>
@@ -1345,16 +1345,16 @@
         <v>2021.3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="8">
         <v>12</v>
@@ -1395,16 +1395,16 @@
         <v>2021.3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="8">
         <v>12</v>
@@ -1445,16 +1445,16 @@
         <v>2020.3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8">
         <v>11</v>
@@ -1495,16 +1495,16 @@
         <v>2020.3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G19" s="8">
         <v>12</v>
@@ -1545,16 +1545,16 @@
         <v>2019.2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G20" s="8">
         <v>10</v>
@@ -1595,16 +1595,16 @@
         <v>2019.2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8">
         <v>12</v>
@@ -1645,16 +1645,16 @@
         <v>2019.2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G22" s="8">
         <v>11</v>
@@ -1695,16 +1695,16 @@
         <v>2020.12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G23" s="8">
         <v>12</v>
@@ -1745,16 +1745,16 @@
         <v>2019.2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G24" s="8">
         <v>10</v>
@@ -1795,16 +1795,16 @@
         <v>2020.2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G25" s="8">
         <v>11</v>
@@ -1845,16 +1845,16 @@
         <v>2021.3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G26" s="8">
         <v>11</v>
@@ -1895,16 +1895,16 @@
         <v>2020.2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G27" s="8">
         <v>11</v>
@@ -1945,16 +1945,16 @@
         <v>2020.2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G28" s="8">
         <v>11</v>
@@ -1995,16 +1995,16 @@
         <v>2020.12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G29" s="8">
         <v>11</v>
@@ -2045,16 +2045,16 @@
         <v>2021.3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G30" s="8">
         <v>12</v>
@@ -2095,16 +2095,16 @@
         <v>2020.2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31" s="8">
         <v>10</v>
@@ -2145,16 +2145,16 @@
         <v>2020.12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G32" s="8">
         <v>11</v>
@@ -2195,16 +2195,16 @@
         <v>2021.3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G33" s="8">
         <v>12</v>
@@ -2245,16 +2245,16 @@
         <v>2020.12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G34" s="8">
         <v>10</v>
@@ -2295,16 +2295,16 @@
         <v>2021.3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G35" s="8">
         <v>11</v>
@@ -2346,16 +2346,16 @@
         <v>2020.2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G36" s="8">
         <v>10</v>
@@ -2397,16 +2397,16 @@
         <v>2020.2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G37" s="8">
         <v>12</v>
@@ -2448,16 +2448,16 @@
         <v>2019.9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G38" s="8">
         <v>11</v>
@@ -2498,16 +2498,16 @@
         <v>2019.9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G39" s="8">
         <v>10</v>
@@ -2548,16 +2548,16 @@
         <v>2019.9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G40" s="8">
         <v>12</v>
@@ -2598,16 +2598,16 @@
         <v>2019.9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G41" s="8">
         <v>11</v>
@@ -2648,16 +2648,16 @@
         <v>2021.12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G42" s="8">
         <v>12</v>
@@ -2698,16 +2698,16 @@
         <v>2021.12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G43" s="8">
         <v>11</v>
@@ -2748,16 +2748,16 @@
         <v>2021.12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G44" s="8">
         <v>12</v>
@@ -2798,16 +2798,16 @@
         <v>2021.12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G45" s="8">
         <v>12</v>
@@ -2848,16 +2848,16 @@
         <v>2021.12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G46" s="8">
         <v>12</v>
@@ -2898,16 +2898,16 @@
         <v>2021.12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G47" s="8">
         <v>11</v>
@@ -2948,16 +2948,16 @@
         <v>2021.12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G48" s="8">
         <v>12</v>
@@ -2998,16 +2998,16 @@
         <v>2021.12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G49" s="8">
         <v>12</v>
